--- a/biology/Zoologie/Gobemouche_à_gorge_rayée/Gobemouche_à_gorge_rayée.xlsx
+++ b/biology/Zoologie/Gobemouche_à_gorge_rayée/Gobemouche_à_gorge_rayée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_ray%C3%A9e</t>
+          <t>Gobemouche_à_gorge_rayée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eumyias additus
 Le Gobemouche à gorge rayée (Eumyias additus, anciennement Rhinomyias additus) est une espèce de passereaux de la famille des Muscicapidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_ray%C3%A9e</t>
+          <t>Gobemouche_à_gorge_rayée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique à l'île de Buru en Indonésie où il habitait les forêts tropicales à des altitudes comprises entre 500 et 1 500 mètres d'altitude. En raison de son habitat très limité, de l'exploitation des forêts et de l'expansion des activités humaines sur l'île, l'espèce a été considérée comme vulnérable en 1994 par l'UICN. Cette classification a été adoucie en « presque menacé » (NT) en 2000 et 2004. Les raisons de ce changement ont été l'ajustement à l'environnement humain, car les oiseaux ont été trouvés dans les zones défrichées de la forêt, ainsi que l'état relativement stable de la forêt de montagne sur Buru.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gobemouche_%C3%A0_gorge_ray%C3%A9e</t>
+          <t>Gobemouche_à_gorge_rayée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) déplace cette espèce, alors dans le genre Rhinomyias, dans le genre Eumyias.
 </t>
